--- a/documentatie/vergaderingen/agenda_vergadering2.xlsx
+++ b/documentatie/vergaderingen/agenda_vergadering2.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d2106\Documents\niv4\2017-2018\project\Barroc-IT-Groep-2\documentatie\vergaderingen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Documents\GitKraken\Barroc-IT-Groep-2\documentatie\vergaderingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="19440" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Fer</author>
     <author>Fer Krimpen</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fer:</t>
         </r>
@@ -44,14 +44,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Vul hier onderwerp (bijv. Naam Project) en groepsnummer in.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fer:</t>
         </r>
@@ -68,14 +68,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Vul hier ook eindtijd in. Bepaal deze a.d.h.v. cel C18.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fer Krimpen:</t>
         </r>
@@ -92,14 +92,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Vul hier ook de naam van je projectbegeleider in.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fer:</t>
         </r>
@@ -116,7 +116,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Vul  hier ook de naam van je projectbegeleider  in.</t>
@@ -202,25 +202,25 @@
     <t xml:space="preserve"> AGENDA Barroc-IT Groep 2</t>
   </si>
   <si>
-    <t>mails controleren</t>
-  </si>
-  <si>
-    <t>inventariseren</t>
-  </si>
-  <si>
-    <t>Tijd: 10:00</t>
-  </si>
-  <si>
     <t>Datum: 18 sep 2017</t>
   </si>
   <si>
-    <t>kern taak 2</t>
+    <t>Tijd: 10:45</t>
+  </si>
+  <si>
+    <t>Mails controleren</t>
+  </si>
+  <si>
+    <t>Inventariseren</t>
+  </si>
+  <si>
+    <t>Kern taak 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
@@ -292,14 +292,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -733,23 +733,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -785,23 +768,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -977,33 +943,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="59"/>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -1013,7 +979,7 @@
       <c r="H2" s="61"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
@@ -1027,9 +993,9 @@
       <c r="H3" s="67"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
@@ -1039,9 +1005,9 @@
       <c r="H4" s="70"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="77" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="79"/>
@@ -1051,7 +1017,7 @@
       <c r="H5" s="73"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1035,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -1079,7 +1045,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="13">
         <v>5</v>
@@ -1098,7 +1064,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="13">
         <v>2</v>
@@ -1115,7 +1081,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="22" t="s">
@@ -1131,7 +1097,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13">
         <v>5</v>
@@ -1141,13 +1107,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13">
         <v>10</v>
@@ -1157,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13">
         <v>5</v>
@@ -1179,7 +1145,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="22"/>
@@ -1191,7 +1157,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13">
         <v>1</v>
@@ -1209,7 +1175,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="13">
         <v>5</v>
@@ -1227,7 +1193,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -1236,7 +1202,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="31">
         <f>SUM(C8:C17)</f>
@@ -1254,7 +1220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="35"/>
       <c r="C19" s="31"/>
       <c r="D19" s="36" t="s">
@@ -1267,7 +1233,7 @@
       <c r="G19" s="37"/>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="35"/>
       <c r="C20" s="31"/>
       <c r="D20" s="36" t="s">
@@ -1280,7 +1246,7 @@
       <c r="G20" s="37"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="35"/>
       <c r="C21" s="31"/>
       <c r="D21" s="36" t="s">
@@ -1293,7 +1259,7 @@
       <c r="G21" s="37"/>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="39"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41" t="s">
@@ -1306,12 +1272,12 @@
       <c r="G22" s="43"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="45"/>
       <c r="E25" s="4">
         <v>1</v>
@@ -1319,7 +1285,7 @@
       <c r="F25" s="46"/>
       <c r="I25" s="47"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
         <v>2</v>
@@ -1327,7 +1293,7 @@
       <c r="F26" s="56"/>
       <c r="I26" s="47"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="E27" s="4">
         <v>3</v>
@@ -1335,7 +1301,7 @@
       <c r="F27" s="56"/>
       <c r="I27" s="47"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4">
@@ -1346,14 +1312,14 @@
       <c r="H28" s="48"/>
       <c r="I28" s="49"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="I29" s="47"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="E30" s="4">
         <v>6</v>
@@ -1361,7 +1327,7 @@
       <c r="F30" s="46"/>
       <c r="I30" s="47"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="E31" s="4">
         <v>7</v>
@@ -1369,18 +1335,18 @@
       <c r="F31" s="46"/>
       <c r="I31" s="47"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="F32" s="46"/>
       <c r="I32" s="47"/>
     </row>
-    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="47"/>
     </row>
-    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4">
         <v>1</v>
       </c>
@@ -1390,7 +1356,7 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
     </row>
-    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4">
         <v>2</v>
       </c>
@@ -1400,7 +1366,7 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="4">
         <v>3</v>
       </c>
@@ -1409,76 +1375,76 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I60" s="5"/>
     </row>
   </sheetData>
@@ -1496,45 +1462,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1583,10 +1534,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1606,16 +1579,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>